--- a/killTheDummy_Documents/Microsoft_Office/abilities.xlsx
+++ b/killTheDummy_Documents/Microsoft_Office/abilities.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -313,25 +313,8 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -341,6 +324,23 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -658,7 +658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A5A1DDE-D791-46AD-9E75-B82ADC2FC475}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
@@ -669,394 +669,394 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="11" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="12">
+      <c r="C2" s="14"/>
+      <c r="D2" s="5">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="3" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="3" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="3" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="14"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="3" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="3" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="3" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="14"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="3" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="3" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="3" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="14"/>
+      <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="3" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="3" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="3" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="14"/>
+      <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="10" t="s">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="12" t="s">
+      <c r="C21" s="14"/>
+      <c r="D21" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="15" t="s">
+      <c r="C22" s="15"/>
+      <c r="D22" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="3" t="s">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="3" t="s">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="3" t="s">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="14"/>
+      <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="3" t="s">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="3" t="s">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="3" t="s">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="14"/>
+      <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="3" t="s">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="3" t="s">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="3" t="s">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="14"/>
+      <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1" t="s">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="3" t="s">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="3" t="s">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="3" t="s">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="14"/>
+      <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="10" t="s">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="4" t="s">
         <v>24</v>
       </c>
     </row>
